--- a/public/uploads/DanhSachDocGiaLoi.xlsx
+++ b/public/uploads/DanhSachDocGiaLoi.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,30 +427,53 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Hello world1</v>
+        <v>Hello world</v>
       </c>
       <c r="B2" t="str">
-        <v>Nữ</v>
+        <v>Nam</v>
       </c>
       <c r="C2" t="str">
-        <v>hello world1</v>
+        <v>hello world</v>
       </c>
       <c r="D2" t="str">
         <v>0888888888</v>
       </c>
       <c r="E2" t="str">
-        <v>docgia20@gmail.com</v>
+        <v>docgia18@gmail.com</v>
       </c>
       <c r="F2" t="str">
+        <v>Wed Aug 01 2001</v>
+      </c>
+      <c r="G2" t="str">
+        <v>Số điện thoại và email này đã được sử dụng</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Hello world1</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Nữ</v>
+      </c>
+      <c r="C3" t="str">
+        <v>hello world1</v>
+      </c>
+      <c r="D3" t="str">
+        <v>0777777777</v>
+      </c>
+      <c r="E3" t="str">
+        <v>docgia19@gmail.com</v>
+      </c>
+      <c r="F3" t="str">
         <v>Thu Aug 02 2001</v>
       </c>
-      <c r="G2" t="str">
-        <v>Số điện thoại này đã được sử dụng.</v>
+      <c r="G3" t="str">
+        <v>Số điện thoại và email này đã được sử dụng</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G3"/>
   </ignoredErrors>
 </worksheet>
 </file>